--- a/Work/Modern Ways/Open Subtitles/Lesson Deployment/ReDe/Turkish_English_28_Word_Step_28_Result1.xlsx
+++ b/Work/Modern Ways/Open Subtitles/Lesson Deployment/ReDe/Turkish_English_28_Word_Step_28_Result1.xlsx
@@ -451,21 +451,21 @@
     <t>bana var</t>
   </si>
   <si>
+    <t>var da</t>
+  </si>
+  <si>
     <t>onu var</t>
   </si>
   <si>
-    <t>var da</t>
-  </si>
-  <si>
     <t>bana bunu</t>
   </si>
   <si>
+    <t>onu bunu</t>
+  </si>
+  <si>
     <t>kadar mı</t>
   </si>
   <si>
-    <t>onu bunu</t>
-  </si>
-  <si>
     <t>seni beni</t>
   </si>
   <si>
@@ -478,10 +478,10 @@
     <t>bunu de</t>
   </si>
   <si>
+    <t>yok için</t>
+  </si>
+  <si>
     <t>beni seni</t>
-  </si>
-  <si>
-    <t>yok için</t>
   </si>
   <si>
     <t>evet doktor</t>
